--- a/アカウント一覧_単体テスト.xlsx
+++ b/アカウント一覧_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BCBD06-44CE-4FDD-978E-5B34A41EAB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E845D4BF-B96D-41C1-9ECC-AE4B3936CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="97">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -129,6 +129,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>実施日</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
@@ -185,6 +189,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>アカウント一覧</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -1148,6 +1156,90 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧のテーブルが操作ではなく、更新、削除と</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なっている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無効を選択できるように設計はされていない</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新たに登録されたアカウントの情報が降順に並んでいるか。</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,アカウント登録画面に遷移し、アカウント登録する</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新たなアカウント情報が降順で並ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1216,7 +1308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,6 +1325,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1882,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1901,37 +1996,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>45809</v>
@@ -1980,16 +2075,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1998,7 +2097,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2014,16 +2113,20 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2032,7 +2135,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2048,16 +2151,20 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2066,7 +2173,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2082,16 +2189,20 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2100,7 +2211,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2116,16 +2227,20 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2134,7 +2249,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2150,16 +2265,20 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2168,7 +2287,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2184,16 +2303,20 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2202,7 +2325,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2218,16 +2341,20 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2236,7 +2363,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2252,16 +2379,20 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2270,7 +2401,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2286,16 +2417,20 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2304,7 +2439,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2320,16 +2455,20 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2338,7 +2477,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2354,16 +2493,20 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2372,7 +2515,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2388,16 +2531,20 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2406,7 +2553,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2422,16 +2569,20 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2440,7 +2591,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2456,16 +2607,20 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2474,7 +2629,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2490,16 +2645,20 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2508,7 +2667,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2521,7 +2680,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -2534,7 +2693,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2550,16 +2709,20 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="G42" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2568,7 +2731,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2581,7 +2744,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -2593,10 +2756,10 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
@@ -2609,16 +2772,20 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2627,7 +2794,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2640,7 +2807,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2652,7 +2819,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2668,16 +2835,20 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="2"/>
+      <c r="G50" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2686,7 +2857,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2699,7 +2870,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -2712,7 +2883,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2728,16 +2899,20 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="G54" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2746,7 +2921,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2762,17 +2937,23 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="G56" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
@@ -2780,7 +2961,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2796,34 +2977,42 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="G58" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="I59" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
@@ -2832,7 +3021,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2847,16 +3036,20 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="G61" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2865,16 +3058,67 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2">
+        <v>24</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2895,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>7</v>
@@ -2913,16 +3157,20 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G69" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2931,7 +3179,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2947,16 +3195,20 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G71" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2965,7 +3217,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2981,16 +3233,20 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G73" s="4">
+        <v>45810</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2999,7 +3255,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>

--- a/アカウント一覧_単体テスト.xlsx
+++ b/アカウント一覧_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E845D4BF-B96D-41C1-9ECC-AE4B3936CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -119,16 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録画面</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1240,6 +1230,16 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1996,37 +1996,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>45809</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2075,19 +2075,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4">
         <v>45810</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2113,19 +2113,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="4">
         <v>45810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2151,19 +2151,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="4">
         <v>45810</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -2173,7 +2173,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2189,19 +2189,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4">
         <v>45810</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2211,7 +2211,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2227,19 +2227,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="4">
         <v>45810</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2249,7 +2249,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2265,19 +2265,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="4">
         <v>45810</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2303,19 +2303,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="4">
         <v>45810</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2341,19 +2341,19 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="4">
         <v>45810</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -2363,7 +2363,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2379,19 +2379,19 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="4">
         <v>45810</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -2401,7 +2401,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2417,19 +2417,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="4">
         <v>45810</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2439,7 +2439,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2455,19 +2455,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" s="4">
         <v>45810</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -2477,7 +2477,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2493,19 +2493,19 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="4">
         <v>45810</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2515,7 +2515,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2531,19 +2531,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="4">
         <v>45810</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2553,7 +2553,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2569,19 +2569,19 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="4">
         <v>45810</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -2591,7 +2591,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2607,19 +2607,19 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="4">
         <v>45810</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2629,7 +2629,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2645,19 +2645,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" s="4">
         <v>45810</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2667,7 +2667,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2680,7 +2680,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -2693,7 +2693,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2709,19 +2709,19 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G42" s="4">
         <v>45810</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -2731,7 +2731,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2744,7 +2744,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -2756,7 +2756,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
@@ -2772,19 +2772,19 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="4">
         <v>45810</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -2794,7 +2794,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2807,7 +2807,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2819,7 +2819,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2835,19 +2835,19 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G50" s="4">
         <v>45810</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -2857,7 +2857,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2870,7 +2870,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -2883,7 +2883,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2899,19 +2899,19 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" s="4">
         <v>45810</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -2921,7 +2921,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2937,22 +2937,22 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56" s="4">
         <v>45810</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2961,7 +2961,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2977,22 +2977,22 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" s="4">
         <v>45810</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3000,18 +3000,18 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3021,7 +3021,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3036,19 +3036,19 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G61" s="4">
         <v>45810</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -3058,7 +3058,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3074,19 +3074,19 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="F63" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G63" s="4">
         <v>45810</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -3096,7 +3096,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3109,7 +3109,7 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3139,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>7</v>
@@ -3157,19 +3157,19 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" s="4">
         <v>45810</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -3179,7 +3179,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -3195,19 +3195,19 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G71" s="4">
         <v>45810</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -3217,7 +3217,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3233,19 +3233,19 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G73" s="4">
         <v>45810</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I73" s="2"/>
     </row>
@@ -3255,7 +3255,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
